--- a/Layer/bin/Debug/net6.0/circlebreak_mysql.xlsx
+++ b/Layer/bin/Debug/net6.0/circlebreak_mysql.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="原始复现" sheetId="9" r:id="rId10"/>
-    <sheet name="原始复现对比" sheetId="10" r:id="rId11"/>
-    <sheet name="迭代分层" sheetId="11" r:id="rId12"/>
-    <sheet name="迭代分层对比" sheetId="12" r:id="rId13"/>
-    <sheet name="改进依赖" sheetId="13" r:id="rId14"/>
-    <sheet name="改进依赖对比" sheetId="14" r:id="rId15"/>
-    <sheet name="最大深度" sheetId="15" r:id="rId16"/>
-    <sheet name="最大深度对比" sheetId="16" r:id="rId17"/>
+    <sheet name="原始复现" sheetId="1" r:id="rId1"/>
+    <sheet name="原始复现对比" sheetId="2" r:id="rId2"/>
+    <sheet name="迭代分层" sheetId="3" r:id="rId4"/>
+    <sheet name="迭代分层对比" sheetId="4" r:id="rId5"/>
+    <sheet name="改进依赖" sheetId="5" r:id="rId6"/>
+    <sheet name="改进依赖对比" sheetId="6" r:id="rId7"/>
+    <sheet name="最大深度" sheetId="7" r:id="rId8"/>
+    <sheet name="最大深度对比" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -998,7 +998,222 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C152"/>
   <sheetViews>
@@ -2683,7 +2898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -2897,7 +3112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C152"/>
   <sheetViews>
@@ -4582,7 +4797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -4796,7 +5011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C152"/>
   <sheetViews>
@@ -6481,7 +6696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C73"/>
   <sheetViews>
@@ -7111,7 +7326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C152"/>
   <sheetViews>
@@ -8794,219 +9009,4 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Layer/bin/Debug/net6.0/circlebreak_mysql.xlsx
+++ b/Layer/bin/Debug/net6.0/circlebreak_mysql.xlsx
@@ -5,21 +5,21 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="原始复现" sheetId="1" r:id="rId1"/>
-    <sheet name="原始复现对比" sheetId="2" r:id="rId2"/>
-    <sheet name="迭代分层" sheetId="3" r:id="rId4"/>
-    <sheet name="迭代分层对比" sheetId="4" r:id="rId5"/>
-    <sheet name="改进依赖" sheetId="5" r:id="rId6"/>
-    <sheet name="改进依赖对比" sheetId="6" r:id="rId7"/>
-    <sheet name="最大深度" sheetId="7" r:id="rId8"/>
-    <sheet name="最大深度对比" sheetId="8" r:id="rId9"/>
+    <sheet name="原始复现" sheetId="17" r:id="rId18"/>
+    <sheet name="原始复现对比" sheetId="18" r:id="rId19"/>
+    <sheet name="迭代分层" sheetId="19" r:id="rId20"/>
+    <sheet name="迭代分层对比" sheetId="20" r:id="rId21"/>
+    <sheet name="改进依赖" sheetId="21" r:id="rId22"/>
+    <sheet name="改进依赖对比" sheetId="22" r:id="rId23"/>
+    <sheet name="最大深度" sheetId="23" r:id="rId24"/>
+    <sheet name="最大深度对比" sheetId="24" r:id="rId25"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>layer 1</t>
   </si>
@@ -621,6 +621,9 @@
     <t>layer 3</t>
   </si>
   <si>
+    <t>layer 4</t>
+  </si>
+  <si>
     <t>sqlite;</t>
   </si>
   <si>
@@ -639,322 +642,322 @@
     <t>gzip;</t>
   </si>
   <si>
+    <t>python-pip;</t>
+  </si>
+  <si>
     <t>kmod;</t>
   </si>
   <si>
     <t>cracklib;</t>
   </si>
   <si>
+    <t>python-setuptools;</t>
+  </si>
+  <si>
     <t>initscripts;</t>
   </si>
   <si>
     <t>libverto;</t>
   </si>
   <si>
+    <t>python3;</t>
+  </si>
+  <si>
     <t>filesystem;</t>
   </si>
   <si>
     <t>keyutils;</t>
   </si>
   <si>
+    <t>perl-Storable;</t>
+  </si>
+  <si>
     <t>basesystem;</t>
   </si>
   <si>
     <t>krb5;</t>
   </si>
   <si>
+    <t>perl-Text-ParseWords;</t>
+  </si>
+  <si>
     <t>rpm;</t>
   </si>
   <si>
     <t>libseccomp;</t>
   </si>
   <si>
+    <t>perl-Time-Local;</t>
+  </si>
+  <si>
     <t>lz4;</t>
   </si>
   <si>
+    <t>perl-MIME-Base64;</t>
+  </si>
+  <si>
     <t>libgpg-error;</t>
   </si>
   <si>
+    <t>perl-HTTP-Tiny;</t>
+  </si>
+  <si>
     <t>libgcrypt;</t>
   </si>
   <si>
+    <t>perl-File-Temp;</t>
+  </si>
+  <si>
     <t>elfutils;</t>
   </si>
   <si>
+    <t>perl-Pod-Perldoc;</t>
+  </si>
+  <si>
     <t>json-c;</t>
   </si>
   <si>
+    <t>perl-Term-Cap;</t>
+  </si>
+  <si>
     <t>lvm2;</t>
   </si>
   <si>
+    <t>perl-Term-ANSIColor;</t>
+  </si>
+  <si>
     <t>cryptsetup;</t>
   </si>
   <si>
+    <t>perl-Pod-Escapes;</t>
+  </si>
+  <si>
     <t>libcap-ng;</t>
   </si>
   <si>
+    <t>perl-Pod-Simple;</t>
+  </si>
+  <si>
     <t>dbus;</t>
   </si>
   <si>
+    <t>perl-podlators;</t>
+  </si>
+  <si>
     <t>libsemanage;</t>
   </si>
   <si>
+    <t>perl-Pod-Usage;</t>
+  </si>
+  <si>
     <t>shadow-utils;</t>
   </si>
   <si>
+    <t>perl-Getopt-Long;</t>
+  </si>
+  <si>
     <t>systemd;</t>
   </si>
   <si>
+    <t>perl-Encode;</t>
+  </si>
+  <si>
     <t>procps-ng;</t>
   </si>
   <si>
+    <t>fuse;</t>
+  </si>
+  <si>
+    <t>perl-threads;</t>
+  </si>
+  <si>
     <t>libunistring;</t>
   </si>
   <si>
+    <t>zstd;</t>
+  </si>
+  <si>
+    <t>perl-parent;</t>
+  </si>
+  <si>
     <t>libidn2;</t>
   </si>
   <si>
+    <t>libaio;</t>
+  </si>
+  <si>
+    <t>perl-Unicode-Normalize;</t>
+  </si>
+  <si>
     <t>nettle;</t>
   </si>
   <si>
+    <t>device-mapper-persistent-data;</t>
+  </si>
+  <si>
+    <t>perl-Text-Tabs+Wrap;</t>
+  </si>
+  <si>
     <t>gnutls;</t>
   </si>
   <si>
+    <t>e2fsprogs;</t>
+  </si>
+  <si>
+    <t>perl-File-Path;</t>
+  </si>
+  <si>
     <t>glib2;</t>
   </si>
   <si>
+    <t>bzip2;</t>
+  </si>
+  <si>
+    <t>perl-Socket;</t>
+  </si>
+  <si>
     <t>libsigsegv;</t>
   </si>
   <si>
+    <t>openssl;</t>
+  </si>
+  <si>
+    <t>perl-constant;</t>
+  </si>
+  <si>
     <t>mpfr;</t>
   </si>
   <si>
-    <t>fuse;</t>
+    <t>policycoreutils;</t>
+  </si>
+  <si>
+    <t>perl-Scalar-List-Utils;</t>
   </si>
   <si>
     <t>gawk;</t>
   </si>
   <si>
-    <t>zstd;</t>
+    <t>selinux-policy;</t>
+  </si>
+  <si>
+    <t>perl-PathTools;</t>
   </si>
   <si>
     <t>findutils;</t>
   </si>
   <si>
-    <t>libaio;</t>
+    <t>perl-Exporter;</t>
   </si>
   <si>
     <t>audit;</t>
   </si>
   <si>
-    <t>device-mapper-persistent-data;</t>
+    <t>perl-Carp;</t>
   </si>
   <si>
     <t>pam;</t>
   </si>
   <si>
-    <t>e2fsprogs;</t>
+    <t>perl;</t>
   </si>
   <si>
     <t>util-linux;</t>
   </si>
   <si>
-    <t>bzip2;</t>
+    <t>perl-threads-shared;</t>
   </si>
   <si>
     <t>libtirpc;</t>
   </si>
   <si>
-    <t>python-pip;</t>
-  </si>
-  <si>
     <t>libnsl2;</t>
   </si>
   <si>
-    <t>python-setuptools;</t>
-  </si>
-  <si>
     <t>xz;</t>
   </si>
   <si>
-    <t>openssl;</t>
-  </si>
-  <si>
     <t>expat;</t>
   </si>
   <si>
-    <t>python3;</t>
-  </si>
-  <si>
     <t>libxcrypt;</t>
   </si>
   <si>
-    <t>perl-Storable;</t>
-  </si>
-  <si>
     <t>readline;</t>
   </si>
   <si>
-    <t>perl-Text-ParseWords;</t>
-  </si>
-  <si>
     <t>gdbm;</t>
   </si>
   <si>
-    <t>perl-Time-Local;</t>
-  </si>
-  <si>
     <t>crypto-policies;</t>
   </si>
   <si>
-    <t>perl-MIME-Base64;</t>
-  </si>
-  <si>
     <t>sed;</t>
   </si>
   <si>
-    <t>perl-HTTP-Tiny;</t>
-  </si>
-  <si>
     <t>libtasn1;</t>
   </si>
   <si>
-    <t>perl-File-Temp;</t>
-  </si>
-  <si>
     <t>libffi;</t>
   </si>
   <si>
-    <t>perl-Pod-Perldoc;</t>
-  </si>
-  <si>
     <t>p11-kit;</t>
   </si>
   <si>
-    <t>perl-Term-Cap;</t>
-  </si>
-  <si>
     <t>pcre;</t>
   </si>
   <si>
-    <t>perl-Term-ANSIColor;</t>
-  </si>
-  <si>
     <t>grep;</t>
   </si>
   <si>
-    <t>perl-Pod-Escapes;</t>
-  </si>
-  <si>
     <t>ca-certificates;</t>
   </si>
   <si>
-    <t>perl-Pod-Simple;</t>
-  </si>
-  <si>
     <t>gmp;</t>
   </si>
   <si>
-    <t>perl-podlators;</t>
-  </si>
-  <si>
     <t>zlib;</t>
   </si>
   <si>
-    <t>perl-Pod-Usage;</t>
-  </si>
-  <si>
     <t>texinfo;</t>
   </si>
   <si>
-    <t>perl-Getopt-Long;</t>
-  </si>
-  <si>
     <t>gcc;</t>
   </si>
   <si>
-    <t>perl-Encode;</t>
-  </si>
-  <si>
     <t>libcap;</t>
   </si>
   <si>
-    <t>perl-threads;</t>
-  </si>
-  <si>
     <t>attr;</t>
   </si>
   <si>
-    <t>perl-parent;</t>
-  </si>
-  <si>
     <t>acl;</t>
   </si>
   <si>
-    <t>perl-Unicode-Normalize;</t>
-  </si>
-  <si>
     <t>coreutils;</t>
   </si>
   <si>
-    <t>perl-Text-Tabs+Wrap;</t>
-  </si>
-  <si>
     <t>popt;</t>
   </si>
   <si>
-    <t>perl-File-Path;</t>
-  </si>
-  <si>
     <t>chkconfig;</t>
   </si>
   <si>
-    <t>perl-Socket;</t>
-  </si>
-  <si>
     <t>libsepol;</t>
   </si>
   <si>
-    <t>perl-constant;</t>
-  </si>
-  <si>
     <t>pcre2;</t>
   </si>
   <si>
-    <t>perl-Scalar-List-Utils;</t>
-  </si>
-  <si>
     <t>libselinux;</t>
   </si>
   <si>
-    <t>perl-PathTools;</t>
-  </si>
-  <si>
     <t>ncurses;</t>
   </si>
   <si>
-    <t>perl-Exporter;</t>
-  </si>
-  <si>
     <t>bash;</t>
   </si>
   <si>
-    <t>perl-Carp;</t>
-  </si>
-  <si>
     <t>glibc;</t>
-  </si>
-  <si>
-    <t>perl;</t>
-  </si>
-  <si>
-    <t>perl-threads-shared;</t>
-  </si>
-  <si>
-    <t>policycoreutils;</t>
-  </si>
-  <si>
-    <t>selinux-policy;</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1001,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -1213,7 +1216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C152"/>
   <sheetViews>
@@ -2898,9 +2901,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2916,6 +2919,9 @@
       <c r="C1" s="0" t="s">
         <v>199</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -2926,6 +2932,9 @@
       </c>
       <c r="C2" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -2938,6 +2947,9 @@
       <c r="C3" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
@@ -2946,6 +2958,9 @@
       <c r="C4" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
@@ -2954,6 +2969,9 @@
       <c r="C5" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
@@ -2962,6 +2980,9 @@
       <c r="C6" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
@@ -2970,6 +2991,9 @@
       <c r="C7" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="D7" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
@@ -2978,6 +3002,9 @@
       <c r="C8" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
@@ -3070,41 +3097,6 @@
     <row r="26">
       <c r="C26" s="0" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3112,7 +3104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C152"/>
   <sheetViews>
@@ -4126,7 +4118,7 @@
         <v>138</v>
       </c>
       <c r="B92" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" s="0">
         <v>3</v>
@@ -4137,7 +4129,7 @@
         <v>139</v>
       </c>
       <c r="B93" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" s="0">
         <v>2</v>
@@ -4148,7 +4140,7 @@
         <v>140</v>
       </c>
       <c r="B94" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" s="0">
         <v>3</v>
@@ -4159,7 +4151,7 @@
         <v>141</v>
       </c>
       <c r="B95" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C95" s="0">
         <v>3</v>
@@ -4170,7 +4162,7 @@
         <v>142</v>
       </c>
       <c r="B96" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96" s="0">
         <v>3</v>
@@ -4181,7 +4173,7 @@
         <v>143</v>
       </c>
       <c r="B97" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C97" s="0">
         <v>3</v>
@@ -4192,7 +4184,7 @@
         <v>144</v>
       </c>
       <c r="B98" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C98" s="0">
         <v>3</v>
@@ -4203,7 +4195,7 @@
         <v>145</v>
       </c>
       <c r="B99" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C99" s="0">
         <v>3</v>
@@ -4214,7 +4206,7 @@
         <v>146</v>
       </c>
       <c r="B100" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100" s="0">
         <v>3</v>
@@ -4225,7 +4217,7 @@
         <v>147</v>
       </c>
       <c r="B101" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C101" s="0">
         <v>3</v>
@@ -4236,7 +4228,7 @@
         <v>148</v>
       </c>
       <c r="B102" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C102" s="0">
         <v>3</v>
@@ -4247,7 +4239,7 @@
         <v>149</v>
       </c>
       <c r="B103" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C103" s="0">
         <v>3</v>
@@ -4258,7 +4250,7 @@
         <v>150</v>
       </c>
       <c r="B104" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C104" s="0">
         <v>3</v>
@@ -4269,7 +4261,7 @@
         <v>151</v>
       </c>
       <c r="B105" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C105" s="0">
         <v>3</v>
@@ -4280,7 +4272,7 @@
         <v>152</v>
       </c>
       <c r="B106" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C106" s="0">
         <v>3</v>
@@ -4291,7 +4283,7 @@
         <v>153</v>
       </c>
       <c r="B107" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C107" s="0">
         <v>3</v>
@@ -4302,7 +4294,7 @@
         <v>154</v>
       </c>
       <c r="B108" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108" s="0">
         <v>3</v>
@@ -4313,7 +4305,7 @@
         <v>155</v>
       </c>
       <c r="B109" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C109" s="0">
         <v>3</v>
@@ -4324,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B110" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C110" s="0">
         <v>3</v>
@@ -4335,7 +4327,7 @@
         <v>157</v>
       </c>
       <c r="B111" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C111" s="0">
         <v>3</v>
@@ -4346,7 +4338,7 @@
         <v>158</v>
       </c>
       <c r="B112" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112" s="0">
         <v>3</v>
@@ -4357,7 +4349,7 @@
         <v>159</v>
       </c>
       <c r="B113" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C113" s="0">
         <v>3</v>
@@ -4368,7 +4360,7 @@
         <v>160</v>
       </c>
       <c r="B114" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C114" s="0">
         <v>3</v>
@@ -4379,7 +4371,7 @@
         <v>161</v>
       </c>
       <c r="B115" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C115" s="0">
         <v>3</v>
@@ -4390,7 +4382,7 @@
         <v>162</v>
       </c>
       <c r="B116" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C116" s="0">
         <v>3</v>
@@ -4401,7 +4393,7 @@
         <v>163</v>
       </c>
       <c r="B117" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C117" s="0">
         <v>3</v>
@@ -4412,7 +4404,7 @@
         <v>164</v>
       </c>
       <c r="B118" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C118" s="0">
         <v>3</v>
@@ -4423,7 +4415,7 @@
         <v>165</v>
       </c>
       <c r="B119" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C119" s="0">
         <v>3</v>
@@ -4445,7 +4437,7 @@
         <v>167</v>
       </c>
       <c r="B121" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C121" s="0">
         <v>2</v>
@@ -4478,7 +4470,7 @@
         <v>170</v>
       </c>
       <c r="B124" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C124" s="0">
         <v>2</v>
@@ -4489,7 +4481,7 @@
         <v>171</v>
       </c>
       <c r="B125" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C125" s="0">
         <v>2</v>
@@ -4500,7 +4492,7 @@
         <v>172</v>
       </c>
       <c r="B126" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>48</v>
@@ -4511,7 +4503,7 @@
         <v>173</v>
       </c>
       <c r="B127" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>48</v>
@@ -4544,7 +4536,7 @@
         <v>176</v>
       </c>
       <c r="B130" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>48</v>
@@ -4643,7 +4635,7 @@
         <v>185</v>
       </c>
       <c r="B139" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C139" s="0">
         <v>2</v>
@@ -4698,7 +4690,7 @@
         <v>190</v>
       </c>
       <c r="B144" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C144" s="0">
         <v>3</v>
@@ -4797,9 +4789,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4815,6 +4807,9 @@
       <c r="C1" s="0" t="s">
         <v>199</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -4825,6 +4820,9 @@
       </c>
       <c r="C2" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -4837,6 +4835,9 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
@@ -4845,6 +4846,9 @@
       <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
@@ -4853,6 +4857,9 @@
       <c r="C5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
@@ -4984,26 +4991,6 @@
     <row r="29">
       <c r="C29" s="0" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5011,7 +4998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C152"/>
   <sheetViews>
@@ -6344,7 +6331,7 @@
         <v>167</v>
       </c>
       <c r="B121" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C121" s="0">
         <v>2</v>
@@ -6377,7 +6364,7 @@
         <v>170</v>
       </c>
       <c r="B124" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C124" s="0">
         <v>2</v>
@@ -6399,7 +6386,7 @@
         <v>172</v>
       </c>
       <c r="B126" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>48</v>
@@ -6410,7 +6397,7 @@
         <v>173</v>
       </c>
       <c r="B127" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>48</v>
@@ -6542,7 +6529,7 @@
         <v>185</v>
       </c>
       <c r="B139" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C139" s="0">
         <v>2</v>
@@ -6597,7 +6584,7 @@
         <v>190</v>
       </c>
       <c r="B144" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C144" s="0">
         <v>3</v>
@@ -6696,9 +6683,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6714,6 +6701,9 @@
       <c r="C1" s="0" t="s">
         <v>199</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -6724,6 +6714,9 @@
       </c>
       <c r="C2" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -6736,16 +6729,22 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -6753,10 +6752,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -6764,10 +6766,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -6775,10 +6780,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -6786,10 +6794,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -6797,528 +6808,501 @@
         <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="D13" s="0" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="0" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="D17" s="0" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="0" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="0" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="D19" s="0" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="0" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="D20" s="0" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="0" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="D21" s="0" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="0" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="0" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="D23" s="0" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="0" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="0" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="D25" s="0" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="0" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="D26" s="0" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" s="0" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>37</v>
+        <v>248</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="0" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>38</v>
+        <v>251</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="0" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>39</v>
+        <v>254</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="0" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>40</v>
+        <v>257</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="0" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>41</v>
+        <v>260</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="0" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>42</v>
+        <v>263</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="0" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>43</v>
+        <v>266</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="0" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>236</v>
+        <v>269</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="0" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>238</v>
+        <v>272</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>240</v>
+        <v>274</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>242</v>
+        <v>276</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>244</v>
+        <v>278</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>246</v>
+        <v>280</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="C71" s="0" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="C73" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7326,7 +7310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:C152"/>
   <sheetViews>
@@ -7372,7 +7356,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0">
         <v>2</v>
@@ -7405,7 +7389,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0">
         <v>3</v>
@@ -7471,7 +7455,7 @@
         <v>59</v>
       </c>
       <c r="B13" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0">
         <v>2</v>
@@ -8340,7 +8324,7 @@
         <v>138</v>
       </c>
       <c r="B92" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" s="0">
         <v>3</v>
@@ -8351,7 +8335,7 @@
         <v>139</v>
       </c>
       <c r="B93" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" s="0">
         <v>2</v>
@@ -8362,7 +8346,7 @@
         <v>140</v>
       </c>
       <c r="B94" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" s="0">
         <v>3</v>
@@ -8373,7 +8357,7 @@
         <v>141</v>
       </c>
       <c r="B95" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C95" s="0">
         <v>3</v>
@@ -8384,7 +8368,7 @@
         <v>142</v>
       </c>
       <c r="B96" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96" s="0">
         <v>3</v>
@@ -8395,7 +8379,7 @@
         <v>143</v>
       </c>
       <c r="B97" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C97" s="0">
         <v>3</v>
@@ -8406,7 +8390,7 @@
         <v>144</v>
       </c>
       <c r="B98" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C98" s="0">
         <v>3</v>
@@ -8417,7 +8401,7 @@
         <v>145</v>
       </c>
       <c r="B99" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C99" s="0">
         <v>3</v>
@@ -8428,7 +8412,7 @@
         <v>146</v>
       </c>
       <c r="B100" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100" s="0">
         <v>3</v>
@@ -8439,7 +8423,7 @@
         <v>147</v>
       </c>
       <c r="B101" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C101" s="0">
         <v>3</v>
@@ -8450,7 +8434,7 @@
         <v>148</v>
       </c>
       <c r="B102" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C102" s="0">
         <v>3</v>
@@ -8461,7 +8445,7 @@
         <v>149</v>
       </c>
       <c r="B103" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C103" s="0">
         <v>3</v>
@@ -8472,7 +8456,7 @@
         <v>150</v>
       </c>
       <c r="B104" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C104" s="0">
         <v>3</v>
@@ -8483,7 +8467,7 @@
         <v>151</v>
       </c>
       <c r="B105" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C105" s="0">
         <v>3</v>
@@ -8494,7 +8478,7 @@
         <v>152</v>
       </c>
       <c r="B106" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C106" s="0">
         <v>3</v>
@@ -8505,7 +8489,7 @@
         <v>153</v>
       </c>
       <c r="B107" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C107" s="0">
         <v>3</v>
@@ -8516,7 +8500,7 @@
         <v>154</v>
       </c>
       <c r="B108" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108" s="0">
         <v>3</v>
@@ -8527,7 +8511,7 @@
         <v>155</v>
       </c>
       <c r="B109" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C109" s="0">
         <v>3</v>
@@ -8538,7 +8522,7 @@
         <v>156</v>
       </c>
       <c r="B110" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C110" s="0">
         <v>3</v>
@@ -8549,7 +8533,7 @@
         <v>157</v>
       </c>
       <c r="B111" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C111" s="0">
         <v>3</v>
@@ -8560,7 +8544,7 @@
         <v>158</v>
       </c>
       <c r="B112" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112" s="0">
         <v>3</v>
@@ -8571,7 +8555,7 @@
         <v>159</v>
       </c>
       <c r="B113" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C113" s="0">
         <v>3</v>
@@ -8582,7 +8566,7 @@
         <v>160</v>
       </c>
       <c r="B114" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C114" s="0">
         <v>3</v>
@@ -8593,7 +8577,7 @@
         <v>161</v>
       </c>
       <c r="B115" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C115" s="0">
         <v>3</v>
@@ -8604,7 +8588,7 @@
         <v>162</v>
       </c>
       <c r="B116" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C116" s="0">
         <v>3</v>
@@ -8615,7 +8599,7 @@
         <v>163</v>
       </c>
       <c r="B117" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C117" s="0">
         <v>3</v>
@@ -8626,7 +8610,7 @@
         <v>164</v>
       </c>
       <c r="B118" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C118" s="0">
         <v>3</v>
@@ -8637,7 +8621,7 @@
         <v>165</v>
       </c>
       <c r="B119" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C119" s="0">
         <v>3</v>
@@ -8692,7 +8676,7 @@
         <v>170</v>
       </c>
       <c r="B124" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C124" s="0">
         <v>2</v>
@@ -8703,7 +8687,7 @@
         <v>171</v>
       </c>
       <c r="B125" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C125" s="0">
         <v>2</v>
@@ -8714,7 +8698,7 @@
         <v>172</v>
       </c>
       <c r="B126" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>48</v>
@@ -8758,7 +8742,7 @@
         <v>176</v>
       </c>
       <c r="B130" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>48</v>
@@ -8912,7 +8896,7 @@
         <v>190</v>
       </c>
       <c r="B144" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C144" s="0">
         <v>3</v>
